--- a/public/uploads/nhap_hang_trung_quoc.xlsx
+++ b/public/uploads/nhap_hang_trung_quoc.xlsx
@@ -13610,9 +13610,9 @@
     <col min="10" max="10" width="5.713" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="5.713" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="16.425" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -13655,13 +13655,13 @@
         <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>448</v>
@@ -13697,20 +13697,20 @@
       <c r="L2" s="4">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f>L2*M2</f>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O2" s="7" t="str">
-        <f>L2*N2</f>
       </c>
       <c r="P2" s="7">
         <v>3500</v>
       </c>
       <c r="Q2" s="7" t="str">
-        <f>O2*P2</f>
+        <f>N2*P2</f>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13751,13 +13751,13 @@
         <v>445</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>448</v>
@@ -13795,20 +13795,20 @@
       <c r="L4" s="4">
         <v>12</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f>L4*M4</f>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O4" s="7" t="str">
-        <f>L4*N4</f>
       </c>
       <c r="P4" s="7">
         <v>3500</v>
       </c>
       <c r="Q4" s="7" t="str">
-        <f>O4*P4</f>
+        <f>N4*P4</f>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -13849,13 +13849,13 @@
         <v>445</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>448</v>
@@ -13897,20 +13897,20 @@
       <c r="L6" s="4">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f>L6*M6</f>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="N6" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="O6" s="7" t="str">
-        <f>L6*N6</f>
       </c>
       <c r="P6" s="7">
         <v>3500</v>
       </c>
       <c r="Q6" s="7" t="str">
-        <f>O6*P6</f>
+        <f>N6*P6</f>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -13951,13 +13951,13 @@
         <v>445</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>448</v>
@@ -13997,20 +13997,20 @@
       <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f>L8*M8</f>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="N8" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O8" s="7" t="str">
-        <f>L8*N8</f>
       </c>
       <c r="P8" s="7">
         <v>3500</v>
       </c>
       <c r="Q8" s="7" t="str">
-        <f>O8*P8</f>
+        <f>N8*P8</f>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -14051,13 +14051,13 @@
         <v>445</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>448</v>
@@ -14095,20 +14095,20 @@
       <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f>L10*M10</f>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O10" s="7" t="str">
-        <f>L10*N10</f>
       </c>
       <c r="P10" s="7">
         <v>3500</v>
       </c>
       <c r="Q10" s="7" t="str">
-        <f>O10*P10</f>
+        <f>N10*P10</f>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -14149,13 +14149,13 @@
         <v>445</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>448</v>
@@ -14187,20 +14187,20 @@
       <c r="L12" s="4">
         <v>12</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f>L12*M12</f>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O12" s="7" t="str">
-        <f>L12*N12</f>
       </c>
       <c r="P12" s="7">
         <v>3500</v>
       </c>
       <c r="Q12" s="7" t="str">
-        <f>O12*P12</f>
+        <f>N12*P12</f>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -14241,13 +14241,13 @@
         <v>445</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>448</v>
@@ -14283,20 +14283,20 @@
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f>L14*M14</f>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="N14" s="7">
-        <v>65.0</v>
-      </c>
-      <c r="O14" s="7" t="str">
-        <f>L14*N14</f>
       </c>
       <c r="P14" s="7">
         <v>3500</v>
       </c>
       <c r="Q14" s="7" t="str">
-        <f>O14*P14</f>
+        <f>N14*P14</f>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -14337,13 +14337,13 @@
         <v>445</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>448</v>
@@ -14383,20 +14383,20 @@
       <c r="L16" s="4">
         <v>12</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f>L16*M16</f>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="N16" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O16" s="7" t="str">
-        <f>L16*N16</f>
       </c>
       <c r="P16" s="7">
         <v>3500</v>
       </c>
       <c r="Q16" s="7" t="str">
-        <f>O16*P16</f>
+        <f>N16*P16</f>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -14437,13 +14437,13 @@
         <v>445</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>448</v>
@@ -14481,20 +14481,20 @@
       <c r="L18" s="4">
         <v>12</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f>L18*M18</f>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="N18" s="7">
-        <v>65.0</v>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f>L18*N18</f>
       </c>
       <c r="P18" s="7">
         <v>3500</v>
       </c>
       <c r="Q18" s="7" t="str">
-        <f>O18*P18</f>
+        <f>N18*P18</f>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -14535,13 +14535,13 @@
         <v>445</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>448</v>
@@ -14583,20 +14583,20 @@
       <c r="L20" s="4">
         <v>12</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f>L20*M20</f>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N20" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O20" s="7" t="str">
-        <f>L20*N20</f>
       </c>
       <c r="P20" s="7">
         <v>3500</v>
       </c>
       <c r="Q20" s="7" t="str">
-        <f>O20*P20</f>
+        <f>N20*P20</f>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -14637,13 +14637,13 @@
         <v>445</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>448</v>
@@ -14679,20 +14679,20 @@
       <c r="L22" s="4">
         <v>12</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f>L22*M22</f>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="N22" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f>L22*N22</f>
       </c>
       <c r="P22" s="7">
         <v>3500</v>
       </c>
       <c r="Q22" s="7" t="str">
-        <f>O22*P22</f>
+        <f>N22*P22</f>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -14733,13 +14733,13 @@
         <v>445</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>448</v>
@@ -14777,20 +14777,20 @@
       <c r="L24" s="4">
         <v>12</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f>L24*M24</f>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="N24" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f>L24*N24</f>
       </c>
       <c r="P24" s="7">
         <v>3500</v>
       </c>
       <c r="Q24" s="7" t="str">
-        <f>O24*P24</f>
+        <f>N24*P24</f>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -14831,13 +14831,13 @@
         <v>445</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>448</v>
@@ -14873,20 +14873,20 @@
       <c r="L26" s="4">
         <v>12</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f>L26*M26</f>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="N26" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f>L26*N26</f>
       </c>
       <c r="P26" s="7">
         <v>3500</v>
       </c>
       <c r="Q26" s="7" t="str">
-        <f>O26*P26</f>
+        <f>N26*P26</f>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -14927,13 +14927,13 @@
         <v>445</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>448</v>
@@ -14973,20 +14973,20 @@
       <c r="L28" s="4">
         <v>12</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f>L28*M28</f>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="N28" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>L28*N28</f>
       </c>
       <c r="P28" s="7">
         <v>3500</v>
       </c>
       <c r="Q28" s="7" t="str">
-        <f>O28*P28</f>
+        <f>N28*P28</f>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -15027,13 +15027,13 @@
         <v>445</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>448</v>
@@ -15069,20 +15069,20 @@
       <c r="L30" s="4">
         <v>12</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f>L30*M30</f>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="N30" s="7">
-        <v>105.0</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f>L30*N30</f>
       </c>
       <c r="P30" s="7">
         <v>3500</v>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>O30*P30</f>
+        <f>N30*P30</f>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -15123,13 +15123,13 @@
         <v>445</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>448</v>
@@ -15169,20 +15169,20 @@
       <c r="L32" s="4">
         <v>12</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f>L32*M32</f>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="N32" s="7">
-        <v>95.0</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f>L32*N32</f>
       </c>
       <c r="P32" s="7">
         <v>3500</v>
       </c>
       <c r="Q32" s="7" t="str">
-        <f>O32*P32</f>
+        <f>N32*P32</f>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -15223,13 +15223,13 @@
         <v>445</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>448</v>
@@ -15265,20 +15265,20 @@
       <c r="L34" s="4">
         <v>12</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f>L34*M34</f>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="N34" s="7">
-        <v>95.0</v>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f>L34*N34</f>
       </c>
       <c r="P34" s="7">
         <v>3500</v>
       </c>
       <c r="Q34" s="7" t="str">
-        <f>O34*P34</f>
+        <f>N34*P34</f>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -15319,13 +15319,13 @@
         <v>445</v>
       </c>
       <c r="M35" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>448</v>
@@ -15365,20 +15365,20 @@
       <c r="L36" s="4">
         <v>14</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f>L36*M36</f>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="N36" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f>L36*N36</f>
       </c>
       <c r="P36" s="7">
         <v>3500</v>
       </c>
       <c r="Q36" s="7" t="str">
-        <f>O36*P36</f>
+        <f>N36*P36</f>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -15419,13 +15419,13 @@
         <v>445</v>
       </c>
       <c r="M37" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>448</v>
@@ -15463,20 +15463,20 @@
       <c r="L38" s="4">
         <v>12</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f>L38*M38</f>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="N38" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="O38" s="7" t="str">
-        <f>L38*N38</f>
       </c>
       <c r="P38" s="7">
         <v>3500</v>
       </c>
       <c r="Q38" s="7" t="str">
-        <f>O38*P38</f>
+        <f>N38*P38</f>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -15517,13 +15517,13 @@
         <v>445</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>448</v>
@@ -15563,20 +15563,20 @@
       <c r="L40" s="4">
         <v>12</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f>L40*M40</f>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="N40" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f>L40*N40</f>
       </c>
       <c r="P40" s="7">
         <v>3500</v>
       </c>
       <c r="Q40" s="7" t="str">
-        <f>O40*P40</f>
+        <f>N40*P40</f>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -15617,13 +15617,13 @@
         <v>445</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>448</v>
@@ -15661,20 +15661,20 @@
       <c r="L42" s="4">
         <v>12</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f>L42*M42</f>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="N42" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f>L42*N42</f>
       </c>
       <c r="P42" s="7">
         <v>3500</v>
       </c>
       <c r="Q42" s="7" t="str">
-        <f>O42*P42</f>
+        <f>N42*P42</f>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -15715,13 +15715,13 @@
         <v>445</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>448</v>
@@ -15755,20 +15755,20 @@
       <c r="L44" s="4">
         <v>12</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f>L44*M44</f>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="N44" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f>L44*N44</f>
       </c>
       <c r="P44" s="7">
         <v>3500</v>
       </c>
       <c r="Q44" s="7" t="str">
-        <f>O44*P44</f>
+        <f>N44*P44</f>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -15809,13 +15809,13 @@
         <v>445</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>448</v>
@@ -15853,20 +15853,20 @@
       <c r="L46" s="4">
         <v>12</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f>L46*M46</f>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="N46" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O46" s="7" t="str">
-        <f>L46*N46</f>
       </c>
       <c r="P46" s="7">
         <v>3500</v>
       </c>
       <c r="Q46" s="7" t="str">
-        <f>O46*P46</f>
+        <f>N46*P46</f>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -15907,13 +15907,13 @@
         <v>445</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>448</v>
@@ -15951,20 +15951,20 @@
       <c r="L48" s="4">
         <v>12</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f>L48*M48</f>
+      </c>
+      <c r="O48" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="N48" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O48" s="7" t="str">
-        <f>L48*N48</f>
       </c>
       <c r="P48" s="7">
         <v>3500</v>
       </c>
       <c r="Q48" s="7" t="str">
-        <f>O48*P48</f>
+        <f>N48*P48</f>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -16005,13 +16005,13 @@
         <v>445</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>448</v>
@@ -16049,20 +16049,20 @@
       <c r="L50" s="4">
         <v>14</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f>L50*M50</f>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="N50" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O50" s="7" t="str">
-        <f>L50*N50</f>
       </c>
       <c r="P50" s="7">
         <v>3500</v>
       </c>
       <c r="Q50" s="7" t="str">
-        <f>O50*P50</f>
+        <f>N50*P50</f>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -16103,13 +16103,13 @@
         <v>445</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>448</v>
@@ -16143,20 +16143,20 @@
       <c r="L52" s="4">
         <v>12</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f>L52*M52</f>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="N52" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O52" s="7" t="str">
-        <f>L52*N52</f>
       </c>
       <c r="P52" s="7">
         <v>3500</v>
       </c>
       <c r="Q52" s="7" t="str">
-        <f>O52*P52</f>
+        <f>N52*P52</f>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -16197,13 +16197,13 @@
         <v>445</v>
       </c>
       <c r="M53" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>448</v>
@@ -16239,20 +16239,20 @@
       <c r="L54" s="4">
         <v>12</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f>L54*M54</f>
+      </c>
+      <c r="O54" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="N54" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O54" s="7" t="str">
-        <f>L54*N54</f>
       </c>
       <c r="P54" s="7">
         <v>3500</v>
       </c>
       <c r="Q54" s="7" t="str">
-        <f>O54*P54</f>
+        <f>N54*P54</f>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -16293,13 +16293,13 @@
         <v>445</v>
       </c>
       <c r="M55" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>448</v>
@@ -16335,20 +16335,20 @@
       <c r="L56" s="4">
         <v>12</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f>L56*M56</f>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="N56" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O56" s="7" t="str">
-        <f>L56*N56</f>
       </c>
       <c r="P56" s="7">
         <v>3500</v>
       </c>
       <c r="Q56" s="7" t="str">
-        <f>O56*P56</f>
+        <f>N56*P56</f>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -16389,13 +16389,13 @@
         <v>445</v>
       </c>
       <c r="M57" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>448</v>
@@ -16431,20 +16431,20 @@
       <c r="L58" s="4">
         <v>12</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f>L58*M58</f>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="N58" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O58" s="7" t="str">
-        <f>L58*N58</f>
       </c>
       <c r="P58" s="7">
         <v>3500</v>
       </c>
       <c r="Q58" s="7" t="str">
-        <f>O58*P58</f>
+        <f>N58*P58</f>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -16485,13 +16485,13 @@
         <v>445</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>448</v>
@@ -16527,20 +16527,20 @@
       <c r="L60" s="4">
         <v>12</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f>L60*M60</f>
+      </c>
+      <c r="O60" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="N60" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="O60" s="7" t="str">
-        <f>L60*N60</f>
       </c>
       <c r="P60" s="7">
         <v>3500</v>
       </c>
       <c r="Q60" s="7" t="str">
-        <f>O60*P60</f>
+        <f>N60*P60</f>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -16581,13 +16581,13 @@
         <v>445</v>
       </c>
       <c r="M61" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>448</v>
@@ -16625,20 +16625,20 @@
       <c r="L62" s="4">
         <v>12</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f>L62*M62</f>
+      </c>
+      <c r="O62" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="N62" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O62" s="7" t="str">
-        <f>L62*N62</f>
       </c>
       <c r="P62" s="7">
         <v>3500</v>
       </c>
       <c r="Q62" s="7" t="str">
-        <f>O62*P62</f>
+        <f>N62*P62</f>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -16679,13 +16679,13 @@
         <v>445</v>
       </c>
       <c r="M63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>448</v>
@@ -16721,20 +16721,20 @@
       <c r="L64" s="4">
         <v>12</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N64" s="7" t="str">
+        <f>L64*M64</f>
+      </c>
+      <c r="O64" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="N64" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O64" s="7" t="str">
-        <f>L64*N64</f>
       </c>
       <c r="P64" s="7">
         <v>3500</v>
       </c>
       <c r="Q64" s="7" t="str">
-        <f>O64*P64</f>
+        <f>N64*P64</f>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -16775,13 +16775,13 @@
         <v>445</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>448</v>
@@ -16817,20 +16817,20 @@
       <c r="L66" s="4">
         <v>12</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N66" s="7" t="str">
+        <f>L66*M66</f>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="N66" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O66" s="7" t="str">
-        <f>L66*N66</f>
       </c>
       <c r="P66" s="7">
         <v>3500</v>
       </c>
       <c r="Q66" s="7" t="str">
-        <f>O66*P66</f>
+        <f>N66*P66</f>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -16871,13 +16871,13 @@
         <v>445</v>
       </c>
       <c r="M67" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>448</v>
@@ -16913,20 +16913,20 @@
       <c r="L68" s="4">
         <v>12</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N68" s="7" t="str">
+        <f>L68*M68</f>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="N68" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O68" s="7" t="str">
-        <f>L68*N68</f>
       </c>
       <c r="P68" s="7">
         <v>3500</v>
       </c>
       <c r="Q68" s="7" t="str">
-        <f>O68*P68</f>
+        <f>N68*P68</f>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -16967,13 +16967,13 @@
         <v>445</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>448</v>
@@ -17009,20 +17009,20 @@
       <c r="L70" s="4">
         <v>12</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N70" s="7" t="str">
+        <f>L70*M70</f>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="N70" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="O70" s="7" t="str">
-        <f>L70*N70</f>
       </c>
       <c r="P70" s="7">
         <v>3500</v>
       </c>
       <c r="Q70" s="7" t="str">
-        <f>O70*P70</f>
+        <f>N70*P70</f>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -17063,13 +17063,13 @@
         <v>445</v>
       </c>
       <c r="M71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>448</v>
@@ -17107,20 +17107,20 @@
       <c r="L72" s="4">
         <v>12</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N72" s="7" t="str">
+        <f>L72*M72</f>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="N72" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O72" s="7" t="str">
-        <f>L72*N72</f>
       </c>
       <c r="P72" s="7">
         <v>3500</v>
       </c>
       <c r="Q72" s="7" t="str">
-        <f>O72*P72</f>
+        <f>N72*P72</f>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -17161,13 +17161,13 @@
         <v>445</v>
       </c>
       <c r="M73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>448</v>
@@ -17209,20 +17209,20 @@
       <c r="L74" s="4">
         <v>12</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="N74" s="7" t="str">
+        <f>L74*M74</f>
+      </c>
+      <c r="O74" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="N74" s="7">
-        <v>95.0</v>
-      </c>
-      <c r="O74" s="7" t="str">
-        <f>L74*N74</f>
       </c>
       <c r="P74" s="7">
         <v>3500</v>
       </c>
       <c r="Q74" s="7" t="str">
-        <f>O74*P74</f>
+        <f>N74*P74</f>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -17263,13 +17263,13 @@
         <v>445</v>
       </c>
       <c r="M75" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>448</v>
@@ -17305,20 +17305,20 @@
       <c r="L76" s="4">
         <v>12</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="N76" s="7" t="str">
+        <f>L76*M76</f>
+      </c>
+      <c r="O76" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N76" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="O76" s="7" t="str">
-        <f>L76*N76</f>
       </c>
       <c r="P76" s="7">
         <v>3500</v>
       </c>
       <c r="Q76" s="7" t="str">
-        <f>O76*P76</f>
+        <f>N76*P76</f>
       </c>
     </row>
   </sheetData>
